--- a/Liam_Gavina__Unit1_Asg01.xlsx
+++ b/Liam_Gavina__Unit1_Asg01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gemga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gemga\Desktop\Norquest - SEM 1\Github\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A131265A-B66B-42CB-9604-1F67E1FE55CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0563D-BB2E-4694-96BB-69C1C45AAB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="396" windowWidth="17280" windowHeight="8880" xr2:uid="{78F28AF4-E669-4613-9926-8C61F540C581}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78F28AF4-E669-4613-9926-8C61F540C581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9107E02-CC10-483C-B7DE-930A49E2B857}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -895,18 +891,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,6 +924,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB8432A6-DFAA-4496-ADC2-96A7E0B69EF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426FDE00-3520-40CE-A8D1-5DBFE9E84B5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -941,12 +945,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB8432A6-DFAA-4496-ADC2-96A7E0B69EF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>